--- a/lista_celulares.xlsx
+++ b/lista_celulares.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dilan\Desktop\Bot-Compra-fase1_usa\"/>
@@ -12,85 +12,73 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ordenes" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
     <t>MODELO</t>
   </si>
   <si>
+    <t>USUARIO</t>
+  </si>
+  <si>
+    <t>CONTRASEÑA</t>
+  </si>
+  <si>
     <t>OPERADOR</t>
   </si>
   <si>
     <t>CANTIDAD</t>
   </si>
   <si>
-    <t>MODO</t>
+    <t>ESTADO</t>
+  </si>
+  <si>
+    <t>ORDEN</t>
+  </si>
+  <si>
+    <t>Iphone 11 128GB White</t>
+  </si>
+  <si>
+    <t>cualquier_cosa_12345@outlook.es</t>
+  </si>
+  <si>
+    <t>Compra2040</t>
   </si>
   <si>
     <t>verizon</t>
   </si>
   <si>
-    <t xml:space="preserve">pick up </t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verizon </t>
-  </si>
-  <si>
-    <t>pick up</t>
-  </si>
-  <si>
-    <t>Iphone 12 Pro 128GB White</t>
-  </si>
-  <si>
-    <t>USUARIO</t>
-  </si>
-  <si>
-    <t>CONTRASEÑA</t>
-  </si>
-  <si>
-    <t>cualquier_cosa_12345@outlook.es</t>
-  </si>
-  <si>
-    <t>Compra2040</t>
-  </si>
-  <si>
-    <t>ORDEN</t>
-  </si>
-  <si>
-    <t>ESTADO</t>
-  </si>
-  <si>
-    <t>Iphone 12 Mini 256GB Red</t>
-  </si>
-  <si>
-    <t>Iphone 11 128GB White</t>
+    <t>Iphone 12 128GB Black</t>
+  </si>
+  <si>
+    <t>Iphone 12 Pro 128GB Silver</t>
+  </si>
+  <si>
+    <t>Iphone SE 64GB White</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <u/>
@@ -109,7 +97,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -117,21 +105,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -143,28 +149,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:H11" totalsRowShown="0">
-  <autoFilter ref="A1:H11"/>
-  <sortState ref="A2:F12">
-    <sortCondition ref="A1:A12"/>
-  </sortState>
-  <tableColumns count="8">
-    <tableColumn id="1" name="MODELO"/>
-    <tableColumn id="3" name="USUARIO"/>
-    <tableColumn id="2" name="CONTRASEÑA"/>
-    <tableColumn id="4" name="OPERADOR"/>
-    <tableColumn id="5" name="CANTIDAD"/>
-    <tableColumn id="6" name="MODO"/>
-    <tableColumn id="7" name="ESTADO"/>
-    <tableColumn id="8" name="ORDEN"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -174,39 +160,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -238,10 +224,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -273,7 +258,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -285,256 +269,287 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" customWidth="1"/>
-    <col min="3" max="6" width="12" customWidth="1"/>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="81.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
+      <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" t="s">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
-  <tableParts count="1">
-    <tablePart r:id="rId5"/>
-  </tableParts>
 </worksheet>
 </file>